--- a/Data_Raw/Benefish 3 Excel files/Exports 2_edAM.xlsx
+++ b/Data_Raw/Benefish 3 Excel files/Exports 2_edAM.xlsx
@@ -289,21 +289,12 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3E398473-DD35-4CDA-AE4F-9EB0C1773557}" diskRevisions="1" revisionId="7" version="2">
-  <header guid="{6F955B22-85C2-4704-AFB4-34E3F67E63AF}" dateTime="2016-05-24T15:49:12" maxSheetId="2" userName="Anne Moorhead" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{3E398473-DD35-4CDA-AE4F-9EB0C1773557}" dateTime="2016-05-24T15:50:51" maxSheetId="2" userName="Anne Moorhead" r:id="rId2" minRId="1" maxRId="7">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
